--- a/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
+++ b/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
   <si>
     <t>Oracle TDE测试相关指标和功能模块</t>
   </si>
@@ -126,12 +126,18 @@
     <t>对整个CDB进行加密</t>
   </si>
   <si>
+    <t>对cdb 数据库的进行 tde 的配置之后，就可以创建加密表空间和加密字段的表了，12.1.0.2无法实现对系统表空间的加密</t>
+  </si>
+  <si>
     <t>PDB的加密</t>
   </si>
   <si>
     <t>对这个PDB进行加密</t>
   </si>
   <si>
+    <t>对pdb 数据库的进行 tde 的配置之后，就可以创建加密表空间和加密字段的表了，12.1.0.2无法实现对系统表空间的加密</t>
+  </si>
+  <si>
     <t>PDB的管理维护</t>
   </si>
   <si>
@@ -147,6 +153,9 @@
     <t>数据库加密后加密管理用户的维护与管理</t>
   </si>
   <si>
+    <t>用户管理跟不进行tde配置的用户管理相同，基本命令相同。</t>
+  </si>
+  <si>
     <t>修改wallet密码</t>
   </si>
   <si>
@@ -156,6 +165,9 @@
     <t>对CDB和PDB的wallet密码修改</t>
   </si>
   <si>
+    <t>https://github.com/aimdotsh/tde/blob/main/在Oracle的CDB中进行TDE配置.md#changing-the-password-based-software-keystore-password</t>
+  </si>
+  <si>
     <t>表空间加密</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
   </si>
   <si>
     <t>对CDB和PDB中system，undo这些表空间加密</t>
+  </si>
+  <si>
+    <t>12.1.-.2 无法实现 system及undo 表空间的加密.19c可以实现</t>
   </si>
   <si>
     <t>新建表空间加密</t>
@@ -1544,8 +1559,8 @@
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -1671,29 +1686,34 @@
         <v>25</v>
       </c>
       <c r="E7" s="17"/>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="8"/>
       <c r="B8" s="10"/>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="7"/>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="8"/>
       <c r="B9" s="11"/>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="7"/>
@@ -1702,43 +1722,47 @@
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="17"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="8"/>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E11" s="17"/>
-      <c r="F11" s="7"/>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="7"/>
@@ -1748,10 +1772,10 @@
       <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="7"/>
@@ -1761,23 +1785,25 @@
       <c r="A14" s="8"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E14" s="17"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="8"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="7"/>
@@ -1787,10 +1813,10 @@
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="7"/>
@@ -1799,16 +1825,16 @@
     <row r="17" ht="41.5" customHeight="1" spans="1:7">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1817,10 +1843,10 @@
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="7"/>
@@ -1830,10 +1856,10 @@
       <c r="A19" s="8"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="7"/>
@@ -1843,10 +1869,10 @@
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="7"/>
@@ -1856,10 +1882,10 @@
       <c r="A21" s="8"/>
       <c r="B21" s="10"/>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="7"/>
@@ -1869,10 +1895,10 @@
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="7"/>
@@ -1882,10 +1908,10 @@
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="7"/>
@@ -1894,13 +1920,13 @@
     <row r="24" ht="75" customHeight="1" spans="1:7">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="7"/>
@@ -1909,16 +1935,16 @@
     <row r="25" ht="75" customHeight="1" spans="1:7">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1926,13 +1952,13 @@
     <row r="26" ht="75" customHeight="1" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="7"/>
@@ -1941,13 +1967,13 @@
     <row r="27" ht="75" customHeight="1" spans="1:7">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="7"/>
@@ -1956,13 +1982,13 @@
     <row r="28" ht="75" customHeight="1" spans="1:7">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="7"/>
@@ -1971,16 +1997,16 @@
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -1989,10 +2015,10 @@
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="7" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="7"/>
@@ -2001,13 +2027,13 @@
     <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="7"/>
@@ -2017,10 +2043,10 @@
       <c r="A32" s="8"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="7"/>
@@ -2029,13 +2055,13 @@
     <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="7"/>
@@ -2045,10 +2071,10 @@
       <c r="A34" s="8"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="7"/>
@@ -2058,10 +2084,10 @@
       <c r="A35" s="8"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="7"/>
@@ -2071,10 +2097,10 @@
       <c r="A36" s="8"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="7"/>
@@ -2083,16 +2109,16 @@
     <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="8"/>
       <c r="B37" s="6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2100,13 +2126,13 @@
     <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="8"/>
       <c r="B38" s="6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="7"/>
@@ -2115,13 +2141,13 @@
     <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="8"/>
       <c r="B39" s="6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="7"/>
@@ -2130,16 +2156,16 @@
     <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="8"/>
       <c r="B40" s="6" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -2147,13 +2173,13 @@
     <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="8"/>
       <c r="B41" s="6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
@@ -2162,13 +2188,13 @@
     <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="8"/>
       <c r="B42" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="7"/>
@@ -2177,13 +2203,13 @@
     <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="8"/>
       <c r="B43" s="13" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="7"/>
@@ -2192,16 +2218,16 @@
     <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="8"/>
       <c r="B44" s="13" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2209,13 +2235,13 @@
     <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="8"/>
       <c r="B45" s="13" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
@@ -2224,13 +2250,13 @@
     <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="8"/>
       <c r="B46" s="13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="7"/>

--- a/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
+++ b/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>Oracle TDE测试相关指标和功能模块</t>
   </si>
@@ -189,13 +189,16 @@
     <t>对CDB和PDB中system，undo这些表空间加密</t>
   </si>
   <si>
-    <t>12.1.-.2 无法实现 system及undo 表空间的加密.19c可以实现</t>
+    <t>12.1.0.2 无法实现 system及undo 表空间的加密.19c可以实现</t>
   </si>
   <si>
     <t>新建表空间加密</t>
   </si>
   <si>
     <t>在CDB和PDB创建新的表空间并加密</t>
+  </si>
+  <si>
+    <t>12.1.0.2 只能对新建的表空间加密</t>
   </si>
   <si>
     <t>非加密表空间转换</t>
@@ -1559,8 +1562,8 @@
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -1806,17 +1809,19 @@
         <v>49</v>
       </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="8"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="7"/>
@@ -1825,16 +1830,16 @@
     <row r="17" ht="41.5" customHeight="1" spans="1:7">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -1843,10 +1848,10 @@
       <c r="A18" s="8"/>
       <c r="B18" s="10"/>
       <c r="C18" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="7"/>
@@ -1856,10 +1861,10 @@
       <c r="A19" s="8"/>
       <c r="B19" s="10"/>
       <c r="C19" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="7"/>
@@ -1869,10 +1874,10 @@
       <c r="A20" s="8"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="7"/>
@@ -1882,10 +1887,10 @@
       <c r="A21" s="8"/>
       <c r="B21" s="10"/>
       <c r="C21" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="7"/>
@@ -1895,10 +1900,10 @@
       <c r="A22" s="8"/>
       <c r="B22" s="10"/>
       <c r="C22" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="7"/>
@@ -1908,10 +1913,10 @@
       <c r="A23" s="8"/>
       <c r="B23" s="11"/>
       <c r="C23" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="7"/>
@@ -1920,13 +1925,13 @@
     <row r="24" ht="75" customHeight="1" spans="1:7">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="7"/>
@@ -1935,16 +1940,16 @@
     <row r="25" ht="75" customHeight="1" spans="1:7">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -1952,13 +1957,13 @@
     <row r="26" ht="75" customHeight="1" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="7"/>
@@ -1967,13 +1972,13 @@
     <row r="27" ht="75" customHeight="1" spans="1:7">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="7"/>
@@ -1982,13 +1987,13 @@
     <row r="28" ht="75" customHeight="1" spans="1:7">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="7"/>
@@ -1997,16 +2002,16 @@
     <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="8"/>
       <c r="B29" s="9" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
@@ -2015,10 +2020,10 @@
       <c r="A30" s="8"/>
       <c r="B30" s="11"/>
       <c r="C30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="7"/>
@@ -2027,13 +2032,13 @@
     <row r="31" customHeight="1" spans="1:7">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="7"/>
@@ -2043,10 +2048,10 @@
       <c r="A32" s="8"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="7"/>
@@ -2055,13 +2060,13 @@
     <row r="33" customHeight="1" spans="1:7">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="7"/>
@@ -2071,10 +2076,10 @@
       <c r="A34" s="8"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="7"/>
@@ -2084,10 +2089,10 @@
       <c r="A35" s="8"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="7"/>
@@ -2097,10 +2102,10 @@
       <c r="A36" s="8"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="7"/>
@@ -2109,16 +2114,16 @@
     <row r="37" customHeight="1" spans="1:7">
       <c r="A37" s="8"/>
       <c r="B37" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -2126,13 +2131,13 @@
     <row r="38" customHeight="1" spans="1:7">
       <c r="A38" s="8"/>
       <c r="B38" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E38" s="17"/>
       <c r="F38" s="7"/>
@@ -2141,13 +2146,13 @@
     <row r="39" customHeight="1" spans="1:7">
       <c r="A39" s="8"/>
       <c r="B39" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="7"/>
@@ -2156,16 +2161,16 @@
     <row r="40" customHeight="1" spans="1:7">
       <c r="A40" s="8"/>
       <c r="B40" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -2173,13 +2178,13 @@
     <row r="41" customHeight="1" spans="1:7">
       <c r="A41" s="8"/>
       <c r="B41" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E41" s="17"/>
       <c r="F41" s="7"/>
@@ -2188,13 +2193,13 @@
     <row r="42" customHeight="1" spans="1:7">
       <c r="A42" s="8"/>
       <c r="B42" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E42" s="17"/>
       <c r="F42" s="7"/>
@@ -2203,13 +2208,13 @@
     <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="8"/>
       <c r="B43" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="7"/>
@@ -2218,16 +2223,16 @@
     <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="8"/>
       <c r="B44" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2235,13 +2240,13 @@
     <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="8"/>
       <c r="B45" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E45" s="17"/>
       <c r="F45" s="7"/>
@@ -2250,13 +2255,13 @@
     <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="8"/>
       <c r="B46" s="13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="7"/>

--- a/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
+++ b/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
@@ -23,6 +23,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Oracle TDE透明数据加密允许用户对各个表列或整个表空间进行加密。当用户向加密的列中插入数据时，透明数据加密会自动对该数据加密。当用户选择该列时，数据将自动解密。选择完毕后，数据将重新加密。
 由于透明数据加密在数据库之外的一个安全模块（即，wallet钱夹）中存储加密密钥，因此在存储介质或数据文件丢失时，该功能有助于保护存储在介质上的数据。在这类失窃事件中，保护数据是大部分合规管理的要求。使用透明数据加密的优势是，该功能仅需少量的编码工作，并且实施过程快速、简便。</t>
     </r>
@@ -468,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -508,6 +514,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -523,6 +545,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -532,7 +561,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,40 +575,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,9 +590,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,46 +650,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,175 +679,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -927,15 +933,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -953,24 +950,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,18 +963,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,157 +1006,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1211,8 +1217,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1562,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -1637,7 +1652,7 @@
       <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -1656,7 +1671,7 @@
       <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="17"/>
+      <c r="E5" s="20"/>
       <c r="F5" t="s">
         <v>19</v>
       </c>
@@ -1671,7 +1686,7 @@
       <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="20"/>
       <c r="F6" t="s">
         <v>22</v>
       </c>
@@ -1688,7 +1703,7 @@
       <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="20"/>
       <c r="F7" t="s">
         <v>26</v>
       </c>
@@ -1703,7 +1718,7 @@
       <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
       <c r="F8" t="s">
         <v>29</v>
       </c>
@@ -1718,7 +1733,7 @@
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
@@ -1733,7 +1748,7 @@
       <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="7" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +1765,7 @@
       <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="20"/>
       <c r="F11" t="s">
         <v>39</v>
       </c>
@@ -1767,7 +1782,7 @@
       <c r="D12" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
@@ -1780,7 +1795,7 @@
       <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
@@ -1793,7 +1808,7 @@
       <c r="D14" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1808,7 +1823,7 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="7" t="s">
         <v>50</v>
       </c>
@@ -1823,22 +1838,22 @@
       <c r="D16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
     <row r="17" ht="41.5" customHeight="1" spans="1:7">
       <c r="A17" s="8"/>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="22" t="s">
         <v>56</v>
       </c>
       <c r="F17" s="7"/>
@@ -1846,79 +1861,79 @@
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="7" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="20"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="20"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" ht="35" customHeight="1" spans="1:7">
       <c r="A20" s="8"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="20"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
     <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="8"/>
-      <c r="B21" s="10"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="20"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
     <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="8"/>
-      <c r="B22" s="10"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="20"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
     <row r="23" ht="75" customHeight="1" spans="1:7">
       <c r="A23" s="8"/>
-      <c r="B23" s="11"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="20"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
@@ -1930,10 +1945,10 @@
       <c r="C24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="21"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
@@ -1945,10 +1960,10 @@
       <c r="C25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="19" t="s">
+      <c r="E25" s="22" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="7"/>
@@ -1962,10 +1977,10 @@
       <c r="C26" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="20"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
@@ -1977,10 +1992,10 @@
       <c r="C27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="20"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
@@ -1992,10 +2007,10 @@
       <c r="C28" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
@@ -2007,10 +2022,10 @@
       <c r="C29" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="19" t="s">
+      <c r="E29" s="22" t="s">
         <v>88</v>
       </c>
       <c r="F29" s="7"/>
@@ -2022,10 +2037,10 @@
       <c r="C30" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="20"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
@@ -2040,7 +2055,7 @@
       <c r="D31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="20"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
@@ -2053,7 +2068,7 @@
       <c r="D32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
@@ -2068,7 +2083,7 @@
       <c r="D33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="20"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
@@ -2081,7 +2096,7 @@
       <c r="D34" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
@@ -2094,7 +2109,7 @@
       <c r="D35" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="20"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
@@ -2107,7 +2122,7 @@
       <c r="D36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="21"/>
+      <c r="E36" s="24"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
@@ -2122,7 +2137,7 @@
       <c r="D37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="19" t="s">
         <v>108</v>
       </c>
       <c r="F37" s="7"/>
@@ -2139,7 +2154,7 @@
       <c r="D38" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="17"/>
+      <c r="E38" s="20"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
@@ -2154,7 +2169,7 @@
       <c r="D39" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="18"/>
+      <c r="E39" s="21"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
     </row>
@@ -2169,7 +2184,7 @@
       <c r="D40" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="19" t="s">
         <v>118</v>
       </c>
       <c r="F40" s="7"/>
@@ -2186,7 +2201,7 @@
       <c r="D41" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
     </row>
@@ -2201,13 +2216,13 @@
       <c r="D42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="17"/>
+      <c r="E42" s="20"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
     <row r="43" customHeight="1" spans="1:7">
       <c r="A43" s="8"/>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2216,22 +2231,22 @@
       <c r="D43" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="18"/>
+      <c r="E43" s="21"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
     </row>
     <row r="44" customHeight="1" spans="1:7">
       <c r="A44" s="8"/>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="16" t="s">
+      <c r="E44" s="19" t="s">
         <v>131</v>
       </c>
       <c r="F44" s="7"/>
@@ -2239,31 +2254,31 @@
     </row>
     <row r="45" customHeight="1" spans="1:7">
       <c r="A45" s="8"/>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C45" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="14" t="s">
+      <c r="D45" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="17"/>
+      <c r="E45" s="20"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
     </row>
     <row r="46" customHeight="1" spans="1:7">
       <c r="A46" s="8"/>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C46" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="D46" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E46" s="18"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
@@ -2274,14 +2289,13 @@
       <c r="A48" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="16">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="A4:A48"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B23"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B33:B36"/>

--- a/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
+++ b/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
@@ -474,10 +474,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -514,6 +514,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -523,7 +530,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,15 +599,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,17 +620,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,67 +652,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,102 +679,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -787,67 +847,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,6 +933,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -944,6 +962,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,32 +995,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,162 +1030,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
